--- a/data/income_statement/2digits/total/07_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/07_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>07-Mining of metal ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>07-Mining of metal ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3015365.99545</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4266468.135720001</v>
+        <v>4266468.13572</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>6465622.76712</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7828104.18809</v>
+        <v>7831019.60667</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8247626.032540001</v>
+        <v>8724126.435249999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7733221.71971</v>
+        <v>8658920.808979999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7810461.49502</v>
+        <v>8142929.193609999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8272196.88219</v>
+        <v>8272456.82559</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13216774.74843</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17452115.15957</v>
+        <v>17458835.62708</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>24805340.9857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24849495.20081</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38660700.937</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1884219.905</v>
@@ -998,16 +909,16 @@
         <v>4843633.4155</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5483463.086709999</v>
+        <v>5483463.08671</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5013503.466890001</v>
+        <v>5430712.01183</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4927311.939569999</v>
+        <v>5547562.021269999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5351459.75615</v>
+        <v>5608132.474359999</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>5586764.998229999</v>
@@ -1016,16 +927,21 @@
         <v>9388460.22989</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12707507.92787</v>
+        <v>12714147.89538</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19353297.20723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19389534.13826</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>28520196.861</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1085810.54398</v>
@@ -1037,34 +953,39 @@
         <v>1541063.38104</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2246400.55208</v>
+        <v>2249315.97066</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3133111.8175</v>
+        <v>3192244.07944</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2707917.37855</v>
+        <v>3000072.90232</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2356958.036239999</v>
+        <v>2418767.96496</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>2541733.44644</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3622128.62448</v>
+        <v>3622128.624480001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4559880.77581</v>
+        <v>4559881.27581</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5253324.08892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5261212.33233</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9813809.73</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>45335.54647</v>
@@ -1079,31 +1000,36 @@
         <v>98240.5493</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>101010.74815</v>
+        <v>101170.34398</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>97992.40159000001</v>
+        <v>111285.88539</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>102043.70263</v>
+        <v>116028.75429</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>143698.43752</v>
+        <v>143958.38092</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>206185.89406</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>184726.45589</v>
+        <v>184806.45589</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>198719.68955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>198748.73022</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>326694.346</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>140854.32394</v>
@@ -1115,16 +1041,16 @@
         <v>172265.71816</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>239439.29471</v>
+        <v>239555.60233</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>215881.99237</v>
+        <v>219415.5746</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>277360.2882299999</v>
+        <v>283253.69585</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>214004.49456</v>
+        <v>219944.41924</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>218089.76833</v>
@@ -1136,34 +1062,39 @@
         <v>337031.87751</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>316284.58711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>329837.06191</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>412952.738</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2913.28113</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5270.01251</v>
+        <v>5270.012509999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4669.29657</v>
+        <v>4669.296570000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>19719.4506</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9436.883179999999</v>
+        <v>12893.7758</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12903.63713</v>
+        <v>16532.66772</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>21046.96511</v>
+        <v>24672.1928</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>46418.67034</v>
@@ -1175,13 +1106,18 @@
         <v>63950.81135</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>40068.67066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>53417.98846</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>77133.643</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>127865.25097</v>
@@ -1196,13 +1132,13 @@
         <v>210464.93464</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>192170.13156</v>
+        <v>192191.28572</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>253274.00937</v>
+        <v>253435.32111</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>180401.0806</v>
+        <v>182690.57759</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>164084.28216</v>
@@ -1214,37 +1150,42 @@
         <v>196943.78801</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>227166.76645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>227173.20715</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>279800.495</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>10075.79184</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7084.473549999999</v>
+        <v>7084.47355</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>5778.25401</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>9254.909469999999</v>
+        <v>9371.21709</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>14274.97763</v>
+        <v>14330.51308</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>11182.64173</v>
+        <v>13285.70702</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12556.44885</v>
+        <v>12581.64885</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7586.81583</v>
+        <v>7586.815830000001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>24430.95956</v>
@@ -1253,13 +1194,18 @@
         <v>76137.27815</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>49049.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49245.86629999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>56018.6</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2874511.67151</v>
@@ -1271,34 +1217,39 @@
         <v>6293357.04896</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7588664.89338</v>
+        <v>7591464.00434</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8031744.04017</v>
+        <v>8504710.860650001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7455861.43148</v>
+        <v>8375667.11313</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7596457.00046</v>
+        <v>7922984.774369999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8054107.113860001</v>
+        <v>8054367.05726</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>12939745.05666</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17115083.28206</v>
+        <v>17121803.74957</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>24489056.39859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24519658.1389</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>38247748.199</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1646080.89113</v>
@@ -1310,34 +1261,39 @@
         <v>3011990.83657</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3911668.664679999</v>
+        <v>3917338.12344</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4398386.06834</v>
+        <v>4744732.54765</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4465878.701739999</v>
+        <v>4984506.034959999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4727707.08521</v>
+        <v>4996603.72929</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>5022341.742810001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7692101.85039</v>
+        <v>7692101.850389999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9956574.950259998</v>
+        <v>9961216.81226</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13424602.0904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13453292.50411</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18175281.116</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1292906.63441</v>
@@ -1349,34 +1305,39 @@
         <v>2476835.57273</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3343291.69714</v>
+        <v>3348961.1559</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3825767.42309</v>
+        <v>3877469.94067</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3901230.370149999</v>
+        <v>4252256.94171</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4155174.378940001</v>
+        <v>4253364.44336</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4251544.051080001</v>
+        <v>4251544.05108</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5939814.692169999</v>
+        <v>5939814.692170001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8543566.65787</v>
+        <v>8545036.255720001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11769882.32042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11778722.87851</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16337631.001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>153317.53514</v>
@@ -1391,31 +1352,36 @@
         <v>316270.56926</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>384353.5547</v>
+        <v>445628.45893</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>368590.12601</v>
+        <v>422088.21936</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>331237.32305</v>
+        <v>392690.66452</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>433440.53335</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>863092.41187</v>
+        <v>863092.4118700001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>925023.24009</v>
+        <v>928085.05541</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>982120.3895500001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>993443.41527</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1269899.366</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>186599.80733</v>
@@ -1430,13 +1396,13 @@
         <v>237225.74605</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>174267.20707</v>
+        <v>407479.79536</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>173018.36006</v>
+        <v>286877.84435</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>216509.75592</v>
+        <v>324302.89419</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>309302.77224</v>
@@ -1445,16 +1411,21 @@
         <v>827700.3059800001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>435005.72785</v>
+        <v>435116.17668</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>618676.42197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>627203.2518700002</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>514814.016</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13256.91425</v>
@@ -1469,13 +1440,13 @@
         <v>14880.65223</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13997.88348</v>
+        <v>14154.35269</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>23039.84552</v>
+        <v>23283.02954</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>24785.6273</v>
+        <v>26245.72722</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>28054.38614</v>
@@ -1484,16 +1455,21 @@
         <v>61494.44037</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>52979.32445</v>
+        <v>52979.32444999999</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>53922.95846</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>52936.733</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1228430.78038</v>
@@ -1505,34 +1481,39 @@
         <v>3281366.21239</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3676996.2287</v>
+        <v>3674125.8809</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3633357.97183</v>
+        <v>3759978.313</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2989982.72974</v>
+        <v>3391161.07817</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2868749.91525</v>
+        <v>2926381.045080001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3031765.37105</v>
+        <v>3032025.31445</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5247643.20627</v>
+        <v>5247643.206270001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7158508.331799999</v>
+        <v>7160586.937310001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11064454.30819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11066365.63479</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>20072467.083</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>307406.23886</v>
@@ -1544,34 +1525,39 @@
         <v>619783.6935699999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>801375.56839</v>
+        <v>802018.62548</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>871913.82637</v>
+        <v>898700.63578</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>947888.9128599999</v>
+        <v>979203.4123499999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1055338.57698</v>
+        <v>1097103.27543</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1097037.64024</v>
+        <v>1097344.28278</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1433572.36592</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1761578.7162</v>
+        <v>1763799.09321</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2270114.0245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2273720.50302</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2905500.58</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2817.89333</v>
@@ -1580,19 +1566,19 @@
         <v>15034.06473</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>23414.66569</v>
+        <v>23414.66569000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>36949.79265</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>22503.8179</v>
+        <v>23192.73755</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>26262.1464</v>
+        <v>27015.907</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>35037.6054</v>
+        <v>37420.45715</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>23387.66771</v>
@@ -1604,13 +1590,18 @@
         <v>39679.17907</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>136156.50481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>135668.81418</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>99270.349</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>81237.92570000001</v>
@@ -1622,34 +1613,39 @@
         <v>137815.72167</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>228822.54401</v>
+        <v>229397.47721</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>241409.95013</v>
+        <v>248354.68276</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>283211.49696</v>
+        <v>290035.66354</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>254787.59562</v>
+        <v>260602.81398</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>288119.4648200001</v>
+        <v>288149.1979</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>426101.97613</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>586717.0913</v>
+        <v>586783.3709200001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>688872.3436499999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>690804.3745500001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>932970.7389999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>223350.41983</v>
@@ -1661,37 +1657,42 @@
         <v>458553.30621</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>535603.23173</v>
+        <v>535671.35562</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>608000.05834</v>
+        <v>627153.2154700001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>638415.2695000001</v>
+        <v>662151.84181</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>765513.37596</v>
+        <v>799080.0043</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>785530.50771</v>
+        <v>785807.4171699999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>982614.6453600001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1135182.44583</v>
+        <v>1137336.54322</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1445085.17604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1447247.31429</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1873259.492</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>921024.54152</v>
+        <v>921024.5415200001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1425122.92408</v>
@@ -1700,73 +1701,83 @@
         <v>2661582.51882</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2875620.660310001</v>
+        <v>2872107.25542</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2761444.14546</v>
+        <v>2861277.67722</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2042093.81688</v>
+        <v>2411957.66582</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1813411.33827</v>
+        <v>1829277.76965</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1934727.73081</v>
+        <v>1934681.03167</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3814070.84035</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5396929.6156</v>
+        <v>5396787.8441</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8794340.283689998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8792645.13177</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>17166966.503</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>255479.39553</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>393843.8555700001</v>
+        <v>393843.85557</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>777461.49792</v>
+        <v>777461.4979200001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>636048.3819800001</v>
+        <v>636401.0821900001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>904179.9285700001</v>
+        <v>913504.5546800001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>795213.0488999999</v>
+        <v>891250.25648</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1812260.13343</v>
+        <v>1857339.40199</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2110871.98881</v>
+        <v>2111335.43593</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2461752.7989</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8130451.08354</v>
+        <v>8130797.91921</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5103072.997449999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5089601.652439999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10553315.224</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>22743.35161</v>
@@ -1778,10 +1789,10 @@
         <v>7344.67937</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>30059.36103</v>
+        <v>30060.37893</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14710.07985</v>
+        <v>14946.52607</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>9674.16748</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>117456.16647</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>249378.603</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5634.0755</v>
@@ -1840,35 +1856,40 @@
       <c r="M27" s="48" t="n">
         <v>284194.04831</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>634500.5159999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>69226.45080000001</v>
+        <v>69226.45079999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>98756.50980000001</v>
+        <v>98756.5098</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>156036.32656</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>245411.72636</v>
+        <v>245453.91158</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>202135.27185</v>
+        <v>203591.48529</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>168396.21617</v>
+        <v>170633.05044</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>149287.97999</v>
+        <v>152963.71637</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>239558.59154</v>
+        <v>239604.51569</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>385449.94886</v>
@@ -1877,13 +1898,18 @@
         <v>732746.51223</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1105684.03994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1105696.24266</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1228189.937</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>292.30145</v>
@@ -1916,13 +1942,18 @@
         <v>14701.07192</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8676.24973</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8794.120500000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>898.736</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4977.05517</v>
@@ -1937,7 +1968,7 @@
         <v>1932.76618</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3176.15448</v>
+        <v>3176.154480000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>12997.03041</v>
@@ -1946,7 +1977,7 @@
         <v>17443.33239</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9610.814969999999</v>
+        <v>9610.814970000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>21031.07067</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>13089.08143</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>20260.587</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>14855.5487</v>
@@ -1970,19 +2006,19 @@
         <v>805.86398</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>95496.45032</v>
+        <v>95496.45031999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>2200.68597</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4768.93728</v>
+        <v>4768.93948</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11544.34056</v>
+        <v>11544.68521</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>9263.346230000001</v>
+        <v>9408.872370000001</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>42766.51598999999</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>155138.05756</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>60271.394</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>119373.56187</v>
@@ -2012,34 +2053,39 @@
         <v>458421.00215</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>283182.36655</v>
+        <v>283417.05534</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>584971.65412</v>
+        <v>590207.27806</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>505556.41795</v>
+        <v>596154.7714000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1465966.52411</v>
+        <v>1501249.25782</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1674658.27241</v>
+        <v>1675075.79538</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1535797.69276</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5770643.2353</v>
+        <v>5770990.070970001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3042894.7563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3028821.97207</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7736257.583</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2918.53609</v>
@@ -2069,16 +2115,21 @@
         <v>3307.61137</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>834.3060499999999</v>
+        <v>834.3060499999998</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>1334.78428</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>131352.274</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>37.20072</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1511.14128</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>234.872</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>15421.31362</v>
@@ -2129,16 +2185,16 @@
         <v>46370.85757000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>51328.77365</v>
+        <v>51403.58195</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>89963.07307</v>
+        <v>92359.41338</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72199.82966</v>
+        <v>75401.50486999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>140665.30736</v>
+        <v>146640.57969</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>96197.62946</v>
@@ -2150,13 +2206,18 @@
         <v>581458.62326</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>373094.67215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>373566.03788</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>491970.722</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>210187.42348</v>
@@ -2168,34 +2229,39 @@
         <v>625951.3268100001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>356441.59764</v>
+        <v>356543.3317799999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>498600.78228</v>
+        <v>508677.6155</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>484675.91504</v>
+        <v>554007.62165</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>977025.13817</v>
+        <v>989071.64067</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1353501.3004</v>
+        <v>1354149.55026</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1676897.36792</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4901989.341199999</v>
+        <v>4902647.768870001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3166786.92068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3151767.21472</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8044655.174</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1384.29614</v>
@@ -2210,31 +2276,36 @@
         <v>1535.76759</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>879.56325</v>
+        <v>889.0496299999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>446.62782</v>
+        <v>501.5944699999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>132.56614</v>
+        <v>157.01422</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>651.17063</v>
+        <v>651.1706300000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3229.160249999999</v>
+        <v>3229.16025</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2467.75991</v>
+        <v>2470.30228</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>1818.23539</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>562.265</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13487.88885</v>
@@ -2252,7 +2323,7 @@
         <v>18487.27973</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>16007.12113</v>
+        <v>16282.92225</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>26534.33545</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>69622.43859999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>67117.28200000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>51121.88112</v>
@@ -2291,7 +2367,7 @@
         <v>1069.75426</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>31.00422</v>
+        <v>176.51598</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>17339.50632</v>
@@ -2306,13 +2382,18 @@
         <v>23062.32097</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>57688.95623999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>57688.95624</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>188108.049</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>111057.58039</v>
@@ -2324,34 +2405,39 @@
         <v>455297.45092</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>277835.72768</v>
+        <v>277909.88812</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>409256.54663</v>
+        <v>419259.57289</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>377044.61901</v>
+        <v>445570.01625</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>818192.53776</v>
+        <v>830049.79677</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1196803.0876</v>
+        <v>1197393.12446</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1326170.55035</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4634074.214360001</v>
+        <v>4634730.09966</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2913454.29449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2898360.68052</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6917323.48</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>27.6863</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>526.7658299999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62088.921</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14017.57653</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>11.211</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>19090.51415</v>
@@ -2441,19 +2537,19 @@
         <v>49532.08445</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>41479.03614</v>
+        <v>41506.60984</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>47142.16132</v>
+        <v>47206.48190000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>87723.45871000001</v>
+        <v>88053.48854999998</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>109030.53704</v>
+        <v>109195.33245</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>114256.33414</v>
+        <v>114314.54714</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>268302.35301</v>
@@ -2462,16 +2558,21 @@
         <v>179412.0949</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>123676.23013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>123750.13814</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>809443.966</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>56844.50935000001</v>
+        <v>56844.50934999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>58924.16161</v>
@@ -2480,34 +2581,39 @@
         <v>115420.16191</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>152213.31435</v>
+        <v>152249.80964</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>162620.71308</v>
+        <v>174513.88418</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>165607.02224</v>
+        <v>173651.49803</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>334545.82244</v>
+        <v>358250.94864</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>449490.1019</v>
+        <v>449498.649</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>761736.5520199999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1158893.03851</v>
+        <v>1158893.3804</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1059343.73853</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1060676.25907</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2109664.108</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>43430.89781</v>
@@ -2519,34 +2625,39 @@
         <v>79097.83103</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>100855.16318</v>
+        <v>100891.65847</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>138239.06382</v>
+        <v>150132.23492</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>123813.10572</v>
+        <v>131857.58151</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>254435.95846</v>
+        <v>277940.27828</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>343452.1556899999</v>
+        <v>343460.70279</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>424972.71739</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>606530.57011</v>
+        <v>606530.912</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>723059.69361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>724392.21415</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1200559.926</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>13413.61154</v>
@@ -2567,28 +2678,33 @@
         <v>41793.91652</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>80109.86398000001</v>
+        <v>80310.67036000002</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>106037.94621</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>336763.83463</v>
+        <v>336763.8346299999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>552362.4684</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>336284.0449200001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>336284.04492</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>909104.182</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>909472.00422</v>
+        <v>909472.0042199999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>1532325.03223</v>
@@ -2597,34 +2713,39 @@
         <v>2697672.52802</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3003014.1303</v>
+        <v>2999715.196190001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3004402.57867</v>
+        <v>3091590.73222</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2187023.9285</v>
+        <v>2575548.80262</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2314100.51109</v>
+        <v>2339294.58233</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2242608.31732</v>
+        <v>2242368.26834</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3837189.71931</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>7466498.31943</v>
+        <v>7466044.614040001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9671282.621929999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9669803.310420001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>17565962.445</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>44586.96258</v>
@@ -2636,34 +2757,39 @@
         <v>40110.23003</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>87967.28445000001</v>
+        <v>87995.12822999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>62333.64566999999</v>
+        <v>73297.28387999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>86765.13441999999</v>
+        <v>91102.34969999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>75393.62642</v>
+        <v>87867.22653</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>170238.66193</v>
+        <v>170238.90519</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>740631.93036</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>209644.46743</v>
+        <v>209967.5055</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>240184.08284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>241043.95728</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>354538.072</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>110.11857</v>
@@ -2681,10 +2807,10 @@
         <v>8418.96169</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1780.01704</v>
+        <v>2798.064789999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5992.64037</v>
+        <v>5994.91187</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3952.14735</v>
@@ -2693,19 +2819,24 @@
         <v>2301.87959</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>69909.19745000001</v>
+        <v>69984.49212000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6603.749459999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6623.15031</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>13909.327</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>44476.84401</v>
+        <v>44476.84401000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>35260.57245</v>
@@ -2714,73 +2845,83 @@
         <v>39644.47147</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>85020.29311999999</v>
+        <v>85048.13690000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>53914.68397999999</v>
+        <v>64878.32219</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>84985.11738000001</v>
+        <v>88304.28491</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>69400.98604999998</v>
+        <v>81872.31466</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>166286.51458</v>
+        <v>166286.75784</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>738330.05077</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>139735.26998</v>
+        <v>139983.01338</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>233580.33338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>234420.80697</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>340628.745</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>46312.04506</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>66163.12389</v>
+        <v>66163.12388999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>205102.22137</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>184308.46138</v>
+        <v>185525.65455</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>117913.32543</v>
+        <v>122402.10861</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>166878.65987</v>
+        <v>191517.25525</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>315266.61708</v>
+        <v>333521.97392</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>416041.02922</v>
+        <v>416331.58041</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>468083.2510599999</v>
+        <v>468083.25106</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>513233.80748</v>
+        <v>513249.0554199999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>738061.2268800001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>738478.48311</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>461494.443</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>21493.66647</v>
@@ -2795,16 +2936,16 @@
         <v>85117.16784000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>40846.7971</v>
+        <v>42605.52866</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>38180.36487</v>
+        <v>38864.01237</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>167665.86822</v>
+        <v>181323.76483</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>162950.95243</v>
+        <v>163232.93605</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>131109.46707</v>
@@ -2813,16 +2954,21 @@
         <v>312943.7477</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>524831.7359999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>524987.48438</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>243723.106</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3030.91361</v>
+        <v>3030.913610000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>2189.70418</v>
@@ -2831,34 +2977,39 @@
         <v>5780.95388</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2835.01769</v>
+        <v>3637.91041</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5985.93871</v>
+        <v>6065.48479</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6794.497439999999</v>
+        <v>6816.34015</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>17738.17564</v>
+        <v>18740.92474</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8162.213529999999</v>
+        <v>8162.21353</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>22799.39829</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7105.30272</v>
+        <v>7120.550659999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>43306.76943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>43404.54688</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24937.677</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>21787.46498</v>
@@ -2870,19 +3021,19 @@
         <v>171093.55287</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>96356.27584999999</v>
+        <v>96770.5763</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>71080.58962</v>
+        <v>73731.09516</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>121903.79756</v>
+        <v>145836.90273</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>129862.57322</v>
+        <v>133457.28435</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>244927.86326</v>
+        <v>244936.43083</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>314174.3857</v>
@@ -2891,13 +3042,18 @@
         <v>193184.75706</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>169922.72145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>170086.45185</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>192833.66</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>907746.92174</v>
@@ -2909,34 +3065,39 @@
         <v>2532680.53668</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2906672.95337</v>
+        <v>2902184.66987</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2948822.89891</v>
+        <v>3042485.90749</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2106910.40305</v>
+        <v>2475133.89707</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2074227.52043</v>
+        <v>2093639.83494</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1996805.95003</v>
+        <v>1996275.59312</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>4109738.39861</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7162908.97938</v>
+        <v>7162763.06412</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9173405.47789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9172368.78459</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>17459006.074</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>181740.01675</v>
@@ -2951,34 +3112,39 @@
         <v>519757.0186</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>438730.8667600001</v>
+        <v>459496.4836299999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>343472.24352</v>
+        <v>369178.71432</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>321783.45876</v>
+        <v>330645.5854699999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>455705.63597</v>
+        <v>455705.6359699999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>532840.21557</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>969364.7017900001</v>
+        <v>969382.32773</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1290339.01161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1290729.37326</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2072250.856</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>726006.9049899998</v>
+        <v>726006.90499</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>1215448.00735</v>
@@ -2987,31 +3153,34 @@
         <v>2046783.6115</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2386915.93477</v>
+        <v>2382427.651269999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2510092.03215</v>
+        <v>2582989.42386</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1763438.15953</v>
+        <v>2105955.18275</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1752444.06167</v>
+        <v>1762994.24947</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1541100.31406</v>
+        <v>1540569.95715</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3576898.18304</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6193544.27759</v>
+        <v>6193380.736389999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7883066.466279999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7881639.41133</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15386755.218</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>389</v>
@@ -3041,31 +3213,34 @@
         <v>532</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>801</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>913</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>